--- a/data/trans_orig/P16A20-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A20-Provincia-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5057</v>
+        <v>5077</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003534670053694203</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01852176406072289</v>
+        <v>0.01859637418491213</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7167</v>
+        <v>7674</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008199698634644195</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02747749534209422</v>
+        <v>0.02942148824523651</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -786,19 +786,19 @@
         <v>3104</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>968</v>
+        <v>952</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8384</v>
+        <v>8364</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005814002521524237</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001813954046533681</v>
+        <v>0.001782498079051655</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01570451017505601</v>
+        <v>0.01566678367510311</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>272045</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>267953</v>
+        <v>267933</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>273010</v>
@@ -824,7 +824,7 @@
         <v>0.9964653299463058</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9814782359392781</v>
+        <v>0.9814036258150893</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>258699</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>253671</v>
+        <v>253164</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>260838</v>
@@ -845,7 +845,7 @@
         <v>0.9918003013653558</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9725225046579068</v>
+        <v>0.9705785117547625</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>530744</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>525464</v>
+        <v>525484</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>532880</v>
+        <v>532896</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9941859974784758</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9842954898249441</v>
+        <v>0.9843332163248969</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9981860459534664</v>
+        <v>0.9982175019209484</v>
       </c>
     </row>
     <row r="6">
@@ -964,16 +964,16 @@
         <v>1031</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9333</v>
+        <v>8407</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006396125381634332</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002090012848761245</v>
+        <v>0.002090632941334295</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01892862999924649</v>
+        <v>0.01704927575134197</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -982,19 +982,19 @@
         <v>2850</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8031</v>
+        <v>7680</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005655003903208802</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001780205876985219</v>
+        <v>0.001773236080147847</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01593676016988699</v>
+        <v>0.01523914269995068</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -1003,19 +1003,19 @@
         <v>6004</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2088</v>
+        <v>2913</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12853</v>
+        <v>13154</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006021523156562397</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002093900063774413</v>
+        <v>0.002921903199421961</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01289176982074318</v>
+        <v>0.01319360410915286</v>
       </c>
     </row>
     <row r="8">
@@ -1032,7 +1032,7 @@
         <v>489921</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>483742</v>
+        <v>484668</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>492044</v>
@@ -1041,10 +1041,10 @@
         <v>0.9936038746183656</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9810713700007553</v>
+        <v>0.982950724248658</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9979099871512388</v>
+        <v>0.9979093670586657</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>496</v>
@@ -1053,19 +1053,19 @@
         <v>501099</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>495918</v>
+        <v>496269</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>503052</v>
+        <v>503055</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9943449960967912</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.984063239830111</v>
+        <v>0.9847608573000494</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9982197941230148</v>
+        <v>0.9982267639198522</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>958</v>
@@ -1074,19 +1074,19 @@
         <v>991020</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>984171</v>
+        <v>983870</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>994936</v>
+        <v>994111</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9939784768434377</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9871082301792569</v>
+        <v>0.9868063958908467</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9979060999362256</v>
+        <v>0.9970780968005781</v>
       </c>
     </row>
     <row r="9">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6082</v>
+        <v>6748</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00590445203707412</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01907400956627245</v>
+        <v>0.02116392593702324</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1199,19 +1199,19 @@
         <v>3803</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9374</v>
+        <v>8674</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01133886083307582</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002902849843370628</v>
+        <v>0.002897716972761551</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02794879938277028</v>
+        <v>0.02586190619515244</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -1220,19 +1220,19 @@
         <v>5686</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1899</v>
+        <v>1857</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12398</v>
+        <v>11307</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008690457213460743</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002902960898476201</v>
+        <v>0.002838013101948597</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01895040619368497</v>
+        <v>0.01728193640898553</v>
       </c>
     </row>
     <row r="11">
@@ -1249,7 +1249,7 @@
         <v>316963</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>312764</v>
+        <v>312098</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>318846</v>
@@ -1258,7 +1258,7 @@
         <v>0.9940955479629259</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9809259904337266</v>
+        <v>0.9788360740629767</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1270,19 +1270,19 @@
         <v>331609</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>326038</v>
+        <v>326738</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>334438</v>
+        <v>334440</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9886611391669242</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9720512006172297</v>
+        <v>0.9741380938048475</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9970971501566294</v>
+        <v>0.9971022830272385</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>639</v>
@@ -1291,19 +1291,19 @@
         <v>648572</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>641860</v>
+        <v>642951</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>652359</v>
+        <v>652401</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9913095427865393</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9810495938063151</v>
+        <v>0.9827180635910144</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9970970391015238</v>
+        <v>0.9971619868980515</v>
       </c>
     </row>
     <row r="12">
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6738</v>
+        <v>6204</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005311452462733711</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01878529566565471</v>
+        <v>0.01729686203037823</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6628</v>
+        <v>6704</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.00513844892768445</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01784409883161143</v>
+        <v>0.01804725396806092</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -1437,19 +1437,19 @@
         <v>3814</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9589</v>
+        <v>9503</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.005223436010409803</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001309183062521226</v>
+        <v>0.00131908231501291</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01313312917940575</v>
+        <v>0.01301552208325967</v>
       </c>
     </row>
     <row r="14">
@@ -1466,7 +1466,7 @@
         <v>356766</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>351933</v>
+        <v>352467</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>358671</v>
@@ -1475,7 +1475,7 @@
         <v>0.9946885475372663</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.981214704334345</v>
+        <v>0.9827031379696205</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1487,7 +1487,7 @@
         <v>369547</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>364828</v>
+        <v>364752</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>371456</v>
@@ -1496,7 +1496,7 @@
         <v>0.9948615510723156</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9821559011683886</v>
+        <v>0.9819527460319389</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1508,19 +1508,19 @@
         <v>726313</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>720538</v>
+        <v>720624</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>729171</v>
+        <v>729164</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9947765639895902</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9868668708205942</v>
+        <v>0.9869844779167402</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9986908169374787</v>
+        <v>0.9986809176849871</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>2437</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6666</v>
+        <v>6560</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01198674806195828</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003900202801299146</v>
+        <v>0.003926838116724534</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03278861547282944</v>
+        <v>0.03226792876623975</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1646,19 +1646,19 @@
         <v>2437</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6558</v>
+        <v>6564</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005929791651063231</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001958960171301744</v>
+        <v>0.001950135266015703</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01595829611457323</v>
+        <v>0.01597276954859205</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>200871</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>196642</v>
+        <v>196748</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>202515</v>
+        <v>202510</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9880132519380417</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9672113845271705</v>
+        <v>0.9677320712337604</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9960997971987008</v>
+        <v>0.9960731618832755</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>198</v>
@@ -1709,19 +1709,19 @@
         <v>408539</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>404418</v>
+        <v>404412</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>410171</v>
+        <v>410175</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9940702083489368</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9840417038854268</v>
+        <v>0.9840272304514079</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9980410398286983</v>
+        <v>0.9980498647339843</v>
       </c>
     </row>
     <row r="18">
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5784</v>
+        <v>6665</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.004019104132263246</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02135963002432994</v>
+        <v>0.02461100678956748</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5959</v>
+        <v>5468</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001982708268078224</v>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0108550244677688</v>
+        <v>0.009961060566465368</v>
       </c>
     </row>
     <row r="20">
@@ -1876,7 +1876,7 @@
         <v>269723</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>265027</v>
+        <v>264146</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>270811</v>
@@ -1885,7 +1885,7 @@
         <v>0.9959808958677367</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9786403699756699</v>
+        <v>0.9753889932104317</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1910,7 +1910,7 @@
         <v>547867</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>542996</v>
+        <v>543487</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>548955</v>
@@ -1919,7 +1919,7 @@
         <v>0.9980172917319218</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9891449755322314</v>
+        <v>0.9900389394335346</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4738</v>
+        <v>3809</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.001466731859030218</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.00742357327585263</v>
+        <v>0.005967942571889664</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5272</v>
+        <v>4683</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0007469372852825443</v>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.004206784709144413</v>
+        <v>0.003736596527267105</v>
       </c>
     </row>
     <row r="23">
@@ -2090,7 +2090,7 @@
         <v>637283</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>633481</v>
+        <v>634410</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>638219</v>
@@ -2099,7 +2099,7 @@
         <v>0.9985332681409698</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9925764267241474</v>
+        <v>0.9940320574281103</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -2111,7 +2111,7 @@
         <v>1252310</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1247974</v>
+        <v>1248563</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>1253246</v>
@@ -2120,7 +2120,7 @@
         <v>0.9992530627147175</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9957932152908556</v>
+        <v>0.9962634034727329</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
@@ -2215,19 +2215,19 @@
         <v>3030</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9459</v>
+        <v>8075</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.004079745900852647</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001274639083122342</v>
+        <v>0.001266235271512908</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01273450172683789</v>
+        <v>0.0108707231268167</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -2236,19 +2236,19 @@
         <v>7126</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3132</v>
+        <v>3071</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>14122</v>
+        <v>14681</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.009095075913209769</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.003997852327779379</v>
+        <v>0.003919969377881368</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0180243634191601</v>
+        <v>0.01873738142306358</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>10</v>
@@ -2257,19 +2257,19 @@
         <v>10156</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5092</v>
+        <v>4902</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>17372</v>
+        <v>17391</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.00665433638580581</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003335919452053749</v>
+        <v>0.003211768180535051</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01138196326551589</v>
+        <v>0.01139417312299123</v>
       </c>
     </row>
     <row r="26">
@@ -2286,19 +2286,19 @@
         <v>739747</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>733318</v>
+        <v>734702</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>741830</v>
+        <v>741836</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9959202540991473</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9872654982731621</v>
+        <v>0.9891292768731833</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9987253609168776</v>
+        <v>0.9987337647284871</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>738</v>
@@ -2307,19 +2307,19 @@
         <v>776385</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>769389</v>
+        <v>768830</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>780379</v>
+        <v>780440</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9909049240867902</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9819756365808395</v>
+        <v>0.981262618576936</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9960021476722205</v>
+        <v>0.9960800306221186</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1470</v>
@@ -2328,19 +2328,19 @@
         <v>1516132</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1508916</v>
+        <v>1508897</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1521196</v>
+        <v>1521386</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9933456636141942</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9886180367344841</v>
+        <v>0.9886058268770088</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9966640805479463</v>
+        <v>0.996788231819465</v>
       </c>
     </row>
     <row r="27">
@@ -2432,19 +2432,19 @@
         <v>14462</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>8635</v>
+        <v>8564</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>23909</v>
+        <v>23331</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.004415232919933159</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0026362524286757</v>
+        <v>0.002614435593765683</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.007299205830375028</v>
+        <v>0.007122860897009029</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>19</v>
@@ -2453,19 +2453,19 @@
         <v>18763</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>11460</v>
+        <v>11160</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>28621</v>
+        <v>28268</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.005552417681264333</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.003391280361682762</v>
+        <v>0.003302504445240993</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.008469660939762112</v>
+        <v>0.008365341556381946</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>34</v>
@@ -2474,19 +2474,19 @@
         <v>33225</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>22895</v>
+        <v>23326</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>45458</v>
+        <v>45914</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.004992683250538844</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.003440422952687366</v>
+        <v>0.003505247300488199</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.006830873441746001</v>
+        <v>0.006899424838783807</v>
       </c>
     </row>
     <row r="29">
@@ -2503,19 +2503,19 @@
         <v>3261063</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3251616</v>
+        <v>3252194</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3266890</v>
+        <v>3266961</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9955847670800668</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9927007941696251</v>
+        <v>0.9928771391029909</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9973637475713243</v>
+        <v>0.9973855644062343</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3278</v>
@@ -2524,19 +2524,19 @@
         <v>3360434</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3350576</v>
+        <v>3350929</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3367737</v>
+        <v>3368037</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9944475823187356</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9915303390602378</v>
+        <v>0.9916346584436181</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9966087196383171</v>
+        <v>0.9966974955547591</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6476</v>
@@ -2545,19 +2545,19 @@
         <v>6621497</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6609264</v>
+        <v>6608808</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6631827</v>
+        <v>6631396</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9950073167494612</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.993169126558254</v>
+        <v>0.9931005751612162</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9965595770473126</v>
+        <v>0.9964947526995118</v>
       </c>
     </row>
     <row r="30">
@@ -2896,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5636</v>
+        <v>5554</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003306174552858955</v>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01929018470342611</v>
+        <v>0.01900837237011602</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -2914,19 +2914,19 @@
         <v>3229</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8727</v>
+        <v>8851</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01152003973544997</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003619447797027918</v>
+        <v>0.003633601533833462</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03113455391882486</v>
+        <v>0.03157576273729329</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -2935,19 +2935,19 @@
         <v>4195</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1061</v>
+        <v>1146</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9723</v>
+        <v>11823</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007327865874842202</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001853930350736208</v>
+        <v>0.002001349292292396</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01698351878583</v>
+        <v>0.02065200501324941</v>
       </c>
     </row>
     <row r="5">
@@ -2964,7 +2964,7 @@
         <v>291229</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>286559</v>
+        <v>286641</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>292195</v>
@@ -2973,7 +2973,7 @@
         <v>0.996693825447141</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9807098152965742</v>
+        <v>0.9809916276298853</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2985,19 +2985,19 @@
         <v>277083</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>271585</v>
+        <v>271461</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>279297</v>
+        <v>279293</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.98847996026455</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9688654460811751</v>
+        <v>0.9684242372627063</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9963805522029721</v>
+        <v>0.9963663984661665</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>525</v>
@@ -3006,19 +3006,19 @@
         <v>568311</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>562783</v>
+        <v>560683</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>571445</v>
+        <v>571360</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9926721341251578</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9830164812141693</v>
+        <v>0.9793479949867503</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9981460696492638</v>
+        <v>0.9979986507077075</v>
       </c>
     </row>
     <row r="6">
@@ -3110,19 +3110,19 @@
         <v>2991</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9958</v>
+        <v>8088</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005916514587785586</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001878133303009811</v>
+        <v>0.001856939208231975</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01969819747960187</v>
+        <v>0.01599943023143956</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -3131,19 +3131,19 @@
         <v>21178</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12806</v>
+        <v>12800</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>34056</v>
+        <v>32715</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04051410602649817</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02449809517703573</v>
+        <v>0.02448648198389358</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06515045823569066</v>
+        <v>0.06258527095485042</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -3152,19 +3152,19 @@
         <v>24169</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16030</v>
+        <v>14908</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>37800</v>
+        <v>37671</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02350473202390396</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.015589776755659</v>
+        <v>0.01449791537134715</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03676134781206378</v>
+        <v>0.03663572650081392</v>
       </c>
     </row>
     <row r="8">
@@ -3181,19 +3181,19 @@
         <v>502536</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>495569</v>
+        <v>497439</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>504578</v>
+        <v>504588</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9940834854122144</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9803018025203979</v>
+        <v>0.9840005697685604</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9981218666969901</v>
+        <v>0.998143060791768</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>461</v>
@@ -3202,19 +3202,19 @@
         <v>501553</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>488675</v>
+        <v>490016</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>509925</v>
+        <v>509931</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9594858939735018</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9348495417643088</v>
+        <v>0.9374147290451486</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9755019048229638</v>
+        <v>0.975513518016106</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>930</v>
@@ -3223,19 +3223,19 @@
         <v>1004089</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>990458</v>
+        <v>990587</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1012228</v>
+        <v>1013350</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9764952679760961</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.963238652187936</v>
+        <v>0.963364273499186</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.984410223244341</v>
+        <v>0.9855020846286527</v>
       </c>
     </row>
     <row r="9">
@@ -3340,19 +3340,19 @@
         <v>8039</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3810</v>
+        <v>3117</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16835</v>
+        <v>15779</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02357466786650419</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01117328862021059</v>
+        <v>0.009139916706642251</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04936732415634877</v>
+        <v>0.04626886005543377</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -3361,19 +3361,19 @@
         <v>8039</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3198</v>
+        <v>3144</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16273</v>
+        <v>16799</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01210509889660416</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004814899773293723</v>
+        <v>0.004734367019694483</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02450227900742998</v>
+        <v>0.02529461823356207</v>
       </c>
     </row>
     <row r="11">
@@ -3403,19 +3403,19 @@
         <v>332981</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>324185</v>
+        <v>325241</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>337210</v>
+        <v>337903</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9764253321334958</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9506326758436515</v>
+        <v>0.9537311399445665</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9888267113797896</v>
+        <v>0.9908600832933577</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>628</v>
@@ -3424,19 +3424,19 @@
         <v>656097</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>647863</v>
+        <v>647337</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>660938</v>
+        <v>660992</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9878949011033958</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9754977209925699</v>
+        <v>0.9747053817664378</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9951851002267063</v>
+        <v>0.9952656329803056</v>
       </c>
     </row>
     <row r="12">
@@ -3528,19 +3528,19 @@
         <v>2928</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8673</v>
+        <v>7668</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007829603239666128</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002454786064501322</v>
+        <v>0.002464078056392614</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02318988858475259</v>
+        <v>0.02050361512298212</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -3549,19 +3549,19 @@
         <v>23179</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14808</v>
+        <v>15029</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32708</v>
+        <v>33705</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05974472264089709</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03816878587626034</v>
+        <v>0.03873671665845674</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08430590556209036</v>
+        <v>0.08687420378034313</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>26</v>
@@ -3570,19 +3570,19 @@
         <v>26108</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16976</v>
+        <v>18128</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>37546</v>
+        <v>38288</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03426383201455067</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02227938165499995</v>
+        <v>0.02379161690273567</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04927567873692374</v>
+        <v>0.05024905435962945</v>
       </c>
     </row>
     <row r="14">
@@ -3599,19 +3599,19 @@
         <v>371054</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>365309</v>
+        <v>366314</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>373064</v>
+        <v>373060</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9921703967603339</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9768101114152481</v>
+        <v>0.979496384877019</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9975452139354987</v>
+        <v>0.9975359219436074</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>347</v>
@@ -3620,19 +3620,19 @@
         <v>364795</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>355266</v>
+        <v>354269</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>373166</v>
+        <v>372945</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9402552773591029</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9156940944379099</v>
+        <v>0.9131257962196573</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9618312141237397</v>
+        <v>0.9612632833415433</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>688</v>
@@ -3641,19 +3641,19 @@
         <v>735848</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>724410</v>
+        <v>723668</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>744980</v>
+        <v>743828</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9657361679854494</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9507243212630762</v>
+        <v>0.9497509456403705</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.977720618345</v>
+        <v>0.9762083830972643</v>
       </c>
     </row>
     <row r="15">
@@ -3758,19 +3758,19 @@
         <v>9309</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4189</v>
+        <v>4918</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16595</v>
+        <v>16507</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04239197610980069</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01907425145348957</v>
+        <v>0.02239759538520569</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0755726620680597</v>
+        <v>0.07517059141022979</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -3779,19 +3779,19 @@
         <v>9309</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4994</v>
+        <v>5000</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17187</v>
+        <v>17542</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02153794941352443</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01155346145599317</v>
+        <v>0.01156854617855011</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03976568871725018</v>
+        <v>0.04058692397704387</v>
       </c>
     </row>
     <row r="17">
@@ -3821,19 +3821,19 @@
         <v>210282</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>202996</v>
+        <v>203084</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>215402</v>
+        <v>214673</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9576080238901993</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9244273379319401</v>
+        <v>0.9248294085897701</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9809257485465104</v>
+        <v>0.9776024046147943</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>399</v>
@@ -3842,19 +3842,19 @@
         <v>422900</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>415022</v>
+        <v>414667</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>427215</v>
+        <v>427209</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9784620505864756</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9602343112827499</v>
+        <v>0.959413076022956</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9884465385440069</v>
+        <v>0.9884314538214498</v>
       </c>
     </row>
     <row r="18">
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5087</v>
+        <v>5127</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003783073285439625</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01856617924278699</v>
+        <v>0.0187146702757458</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -3967,19 +3967,19 @@
         <v>8251</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4022</v>
+        <v>3881</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14975</v>
+        <v>15351</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0295576092777452</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01440863958262651</v>
+        <v>0.01390418909514399</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05364756773404853</v>
+        <v>0.054994138438433</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -3988,19 +3988,19 @@
         <v>9287</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4849</v>
+        <v>4220</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17617</v>
+        <v>16841</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01679055043970035</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008766953489336107</v>
+        <v>0.007629269762559373</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03184934024490674</v>
+        <v>0.03044757068558072</v>
       </c>
     </row>
     <row r="20">
@@ -4017,7 +4017,7 @@
         <v>272945</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>268894</v>
+        <v>268854</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>273981</v>
@@ -4026,7 +4026,7 @@
         <v>0.9962169267145604</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9814338207572131</v>
+        <v>0.9812853297242542</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -4038,19 +4038,19 @@
         <v>270889</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>264165</v>
+        <v>263789</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>275118</v>
+        <v>275259</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9704423907222548</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9463524322659516</v>
+        <v>0.9450058615615671</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9855913604173735</v>
+        <v>0.986095810904856</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>520</v>
@@ -4059,19 +4059,19 @@
         <v>543834</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>535504</v>
+        <v>536280</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>548272</v>
+        <v>548901</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9832094495602997</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9681506597550935</v>
+        <v>0.9695524293144184</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9912330465106652</v>
+        <v>0.9923707302374406</v>
       </c>
     </row>
     <row r="21">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5933</v>
+        <v>4990</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.001487307115832539</v>
@@ -4175,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.008952166608908544</v>
+        <v>0.007528564146144008</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>28</v>
@@ -4184,19 +4184,19 @@
         <v>30735</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>19943</v>
+        <v>20475</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>44192</v>
+        <v>42800</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04429578285976815</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02874191530256113</v>
+        <v>0.029509328423142</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06369067809293789</v>
+        <v>0.06168478471726074</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>29</v>
@@ -4205,19 +4205,19 @@
         <v>31721</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>21510</v>
+        <v>21358</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>45646</v>
+        <v>44803</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02338166815069978</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01585512059830923</v>
+        <v>0.01574337873420385</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03364620034751165</v>
+        <v>0.033024606817955</v>
       </c>
     </row>
     <row r="23">
@@ -4234,7 +4234,7 @@
         <v>661802</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>656855</v>
+        <v>657798</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>662788</v>
@@ -4243,7 +4243,7 @@
         <v>0.9985126928841674</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9910478333910915</v>
+        <v>0.992471435853856</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -4255,19 +4255,19 @@
         <v>663118</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>649661</v>
+        <v>651053</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>673910</v>
+        <v>673378</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9557042171402318</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9363093219070622</v>
+        <v>0.93831521528274</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9712580846974395</v>
+        <v>0.9704906715768581</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1225</v>
@@ -4276,19 +4276,19 @@
         <v>1324920</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1310995</v>
+        <v>1311838</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1335131</v>
+        <v>1335283</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9766183318493002</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9663537996524881</v>
+        <v>0.9669753931820445</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9841448794016907</v>
+        <v>0.9842566212657962</v>
       </c>
     </row>
     <row r="24">
@@ -4393,19 +4393,19 @@
         <v>18229</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10767</v>
+        <v>10674</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>28882</v>
+        <v>28960</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02215869986467355</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01308787078146936</v>
+        <v>0.0129752634060542</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03510744824368681</v>
+        <v>0.03520273517139302</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>16</v>
@@ -4414,19 +4414,19 @@
         <v>18229</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>10683</v>
+        <v>10596</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>28835</v>
+        <v>28695</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01139586331155062</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.006678153631562593</v>
+        <v>0.00662420987052318</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01802591382840671</v>
+        <v>0.01793850051061385</v>
       </c>
     </row>
     <row r="26">
@@ -4456,19 +4456,19 @@
         <v>804441</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>793788</v>
+        <v>793710</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>811903</v>
+        <v>811996</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9778413001353264</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9648925517563132</v>
+        <v>0.9647972648286069</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9869121292185307</v>
+        <v>0.9870247365939459</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1455</v>
@@ -4477,19 +4477,19 @@
         <v>1581413</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1570807</v>
+        <v>1570947</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1588959</v>
+        <v>1589046</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9886041366884494</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9819740861715935</v>
+        <v>0.9820614994893865</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9933218463684375</v>
+        <v>0.9933757901294769</v>
       </c>
     </row>
     <row r="27">
@@ -4581,19 +4581,19 @@
         <v>8907</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4048</v>
+        <v>3930</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>16299</v>
+        <v>15865</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.002603604437807695</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.001183357458395933</v>
+        <v>0.001148836522976584</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.004764239899436434</v>
+        <v>0.004637166010440964</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>112</v>
@@ -4602,19 +4602,19 @@
         <v>122150</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>100666</v>
+        <v>99603</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>148607</v>
+        <v>144912</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03443463912454823</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02837819079844674</v>
+        <v>0.02807869117532977</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04189306408618267</v>
+        <v>0.04085140210407929</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>121</v>
@@ -4623,19 +4623,19 @@
         <v>131057</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>109135</v>
+        <v>109855</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>156855</v>
+        <v>158235</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01880715428479564</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01566128265475742</v>
+        <v>0.0157646202844638</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02250917192163862</v>
+        <v>0.02270727511248639</v>
       </c>
     </row>
     <row r="29">
@@ -4652,19 +4652,19 @@
         <v>3412272</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3404880</v>
+        <v>3405314</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3417131</v>
+        <v>3417249</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9973963955621923</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9952357601005636</v>
+        <v>0.995362833989559</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9988166425416041</v>
+        <v>0.9988511634770234</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3176</v>
@@ -4673,19 +4673,19 @@
         <v>3425142</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3398685</v>
+        <v>3402380</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3446626</v>
+        <v>3447689</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9655653608754518</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9581069359138173</v>
+        <v>0.9591485978959207</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9716218092015533</v>
+        <v>0.97192130882467</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6370</v>
@@ -4694,19 +4694,19 @@
         <v>6837414</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6811616</v>
+        <v>6810236</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6859336</v>
+        <v>6858616</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9811928457152044</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9774908280783616</v>
+        <v>0.9772927248875135</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9843387173452426</v>
+        <v>0.9842353797155362</v>
       </c>
     </row>
     <row r="30">
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5861</v>
+        <v>5088</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003167249861802882</v>
@@ -5054,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01995286888298561</v>
+        <v>0.01732062754684259</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -5063,19 +5063,19 @@
         <v>11888</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6617</v>
+        <v>6738</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20323</v>
+        <v>19834</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04117760495559829</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02292033083272646</v>
+        <v>0.02333879093513511</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07039335527177534</v>
+        <v>0.06870085775362944</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -5084,19 +5084,19 @@
         <v>12819</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6964</v>
+        <v>7063</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21262</v>
+        <v>22028</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02200739024514922</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01195651684792742</v>
+        <v>0.0121257634615992</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03650440064007344</v>
+        <v>0.03781872157053574</v>
       </c>
     </row>
     <row r="5">
@@ -5113,7 +5113,7 @@
         <v>292831</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>287900</v>
+        <v>288673</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>293761</v>
@@ -5122,7 +5122,7 @@
         <v>0.9968327501381972</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9800471311170167</v>
+        <v>0.9826793724531553</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -5134,19 +5134,19 @@
         <v>276815</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>268380</v>
+        <v>268869</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>282086</v>
+        <v>281965</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9588223950444017</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9296066447282246</v>
+        <v>0.9312991422463706</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9770796691672735</v>
+        <v>0.9766612090648649</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>530</v>
@@ -5155,19 +5155,19 @@
         <v>569645</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>561202</v>
+        <v>560436</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>575500</v>
+        <v>575401</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9779926097548508</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9634955993599259</v>
+        <v>0.9621812784294643</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9880434831520722</v>
+        <v>0.9878742365384009</v>
       </c>
     </row>
     <row r="6">
@@ -5259,19 +5259,19 @@
         <v>2942</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8038</v>
+        <v>7951</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005853954277871665</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00174319358836992</v>
+        <v>0.001721413093736006</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01599388193024321</v>
+        <v>0.01581980023304709</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -5280,19 +5280,19 @@
         <v>17278</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10450</v>
+        <v>9768</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27984</v>
+        <v>26606</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03303112645280683</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01997723469095569</v>
+        <v>0.01867429646799603</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05349867860860563</v>
+        <v>0.05086401834327606</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -5301,19 +5301,19 @@
         <v>20220</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12033</v>
+        <v>12435</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31031</v>
+        <v>31110</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01971425182208451</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01173169590455193</v>
+        <v>0.01212367969915615</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03025481681305926</v>
+        <v>0.03033202254142769</v>
       </c>
     </row>
     <row r="8">
@@ -5330,19 +5330,19 @@
         <v>499633</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>494537</v>
+        <v>494624</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>501699</v>
+        <v>501710</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9941460457221283</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9840061180697564</v>
+        <v>0.9841801997669529</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9982568064116301</v>
+        <v>0.998278586906264</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>468</v>
@@ -5351,19 +5351,19 @@
         <v>505806</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>495100</v>
+        <v>496478</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>512634</v>
+        <v>513316</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9669688735471932</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.946501321391394</v>
+        <v>0.9491359816567236</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9800227653090442</v>
+        <v>0.981325703532004</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>940</v>
@@ -5372,19 +5372,19 @@
         <v>1005439</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>994628</v>
+        <v>994549</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1013626</v>
+        <v>1013224</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9802857481779155</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9697451831869407</v>
+        <v>0.9696679774585724</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9882683040954481</v>
+        <v>0.9878763203008438</v>
       </c>
     </row>
     <row r="9">
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5177</v>
+        <v>5122</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003216148218676698</v>
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01625084769229993</v>
+        <v>0.01607748975194604</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -5497,19 +5497,19 @@
         <v>13936</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7372</v>
+        <v>7485</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23878</v>
+        <v>23189</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0414373904938958</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0219192776773936</v>
+        <v>0.02225490981192428</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07099995785440064</v>
+        <v>0.06895030207780971</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -5518,19 +5518,19 @@
         <v>14960</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8100</v>
+        <v>8663</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23855</v>
+        <v>24847</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0228445772790936</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01236882178536459</v>
+        <v>0.01322790330192426</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03642701636624839</v>
+        <v>0.03794168564764011</v>
       </c>
     </row>
     <row r="11">
@@ -5547,7 +5547,7 @@
         <v>317540</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>313388</v>
+        <v>313443</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>318565</v>
@@ -5556,7 +5556,7 @@
         <v>0.9967838517813233</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9837491523077001</v>
+        <v>0.9839225102480539</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -5568,19 +5568,19 @@
         <v>322373</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>312431</v>
+        <v>313120</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>328937</v>
+        <v>328824</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9585626095061042</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9290000421455993</v>
+        <v>0.9310496979221901</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9780807223226062</v>
+        <v>0.9777450901880756</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>653</v>
@@ -5589,19 +5589,19 @@
         <v>639914</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>631019</v>
+        <v>630027</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>646774</v>
+        <v>646211</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9771554227209064</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9635729836337517</v>
+        <v>0.9620583143523599</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9876311782146355</v>
+        <v>0.9867720966980759</v>
       </c>
     </row>
     <row r="12">
@@ -5706,19 +5706,19 @@
         <v>33887</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23594</v>
+        <v>23825</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>46137</v>
+        <v>47260</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08749965303741639</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06092310663756002</v>
+        <v>0.06151705660615724</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1191311237477647</v>
+        <v>0.1220297812971896</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>32</v>
@@ -5727,19 +5727,19 @@
         <v>33887</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>23374</v>
+        <v>23571</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>47605</v>
+        <v>47344</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04475042917957849</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03086670884864407</v>
+        <v>0.03112704024252395</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06286557984932833</v>
+        <v>0.06252140591773953</v>
       </c>
     </row>
     <row r="14">
@@ -5769,19 +5769,19 @@
         <v>353396</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>341146</v>
+        <v>340023</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>363689</v>
+        <v>363458</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9125003469625836</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.880868876252235</v>
+        <v>0.8779702187028104</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9390768933624398</v>
+        <v>0.9384829433938428</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>680</v>
@@ -5790,19 +5790,19 @@
         <v>723360</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>709642</v>
+        <v>709903</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>733873</v>
+        <v>733676</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9552495708204215</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9371344201506715</v>
+        <v>0.9374785940822606</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9691332911513558</v>
+        <v>0.9688729597574762</v>
       </c>
     </row>
     <row r="15">
@@ -5897,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4735</v>
+        <v>4763</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004447206133980263</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02241654377646191</v>
+        <v>0.02255154113081164</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -5915,19 +5915,19 @@
         <v>10992</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6177</v>
+        <v>5550</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19708</v>
+        <v>18463</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05028532502308301</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02825884695076549</v>
+        <v>0.02538861505954801</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09016016055237058</v>
+        <v>0.08446657669630482</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -5936,19 +5936,19 @@
         <v>11931</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6296</v>
+        <v>5837</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20433</v>
+        <v>20715</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02775904987398384</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01464898355755836</v>
+        <v>0.01358052522236862</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04753938251108526</v>
+        <v>0.04819641292031688</v>
       </c>
     </row>
     <row r="17">
@@ -5965,7 +5965,7 @@
         <v>210282</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>206486</v>
+        <v>206458</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>211221</v>
@@ -5974,7 +5974,7 @@
         <v>0.9955527938660197</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9775834562235381</v>
+        <v>0.9774484588691884</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -5986,19 +5986,19 @@
         <v>207595</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>198879</v>
+        <v>200124</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>212410</v>
+        <v>213037</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.949714674976917</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.909839839447629</v>
+        <v>0.9155334233036959</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9717411530492345</v>
+        <v>0.974611384940452</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>423</v>
@@ -6007,19 +6007,19 @@
         <v>417877</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>409375</v>
+        <v>409093</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>423512</v>
+        <v>423971</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9722409501260162</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9524606174889149</v>
+        <v>0.9518035870796834</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9853510164424416</v>
+        <v>0.9864194747776315</v>
       </c>
     </row>
     <row r="18">
@@ -6111,19 +6111,19 @@
         <v>3051</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8212</v>
+        <v>8122</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01159669182496685</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003641198424947114</v>
+        <v>0.003614668819865524</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03121123102331465</v>
+        <v>0.03086737910711757</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -6132,19 +6132,19 @@
         <v>10338</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5217</v>
+        <v>5172</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18026</v>
+        <v>18514</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0378505014053906</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01910261251270818</v>
+        <v>0.01893637855433933</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06600251322812395</v>
+        <v>0.06778954542956277</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>13</v>
@@ -6153,19 +6153,19 @@
         <v>13389</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7311</v>
+        <v>7649</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22175</v>
+        <v>21930</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02496819705234525</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01363346894296269</v>
+        <v>0.01426434569484077</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04135330435750463</v>
+        <v>0.0408955715487687</v>
       </c>
     </row>
     <row r="20">
@@ -6182,19 +6182,19 @@
         <v>260072</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>254911</v>
+        <v>255001</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>262165</v>
+        <v>262172</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9884033081750332</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9687887689766854</v>
+        <v>0.9691326208928822</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9963588015750529</v>
+        <v>0.9963853311801345</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>253</v>
@@ -6203,19 +6203,19 @@
         <v>262777</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>255089</v>
+        <v>254601</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>267898</v>
+        <v>267943</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9621494985946094</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.933997486771876</v>
+        <v>0.9322104545704373</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9808973874872918</v>
+        <v>0.9810636214456608</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>509</v>
@@ -6224,19 +6224,19 @@
         <v>522849</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>514063</v>
+        <v>514308</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>528927</v>
+        <v>528589</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9750318029476548</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9586466956424953</v>
+        <v>0.9591044284512312</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9863665310570372</v>
+        <v>0.9857356543051594</v>
       </c>
     </row>
     <row r="21">
@@ -6331,7 +6331,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8289</v>
+        <v>7272</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.00348080794666251</v>
@@ -6340,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01262436550280921</v>
+        <v>0.01107636554910192</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>22</v>
@@ -6349,19 +6349,19 @@
         <v>25208</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15978</v>
+        <v>16255</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>37287</v>
+        <v>36861</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03646422634128019</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02311319762363797</v>
+        <v>0.02351388617237242</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05393865432823677</v>
+        <v>0.05332112496489962</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>24</v>
@@ -6370,19 +6370,19 @@
         <v>27493</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>17774</v>
+        <v>19197</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>39876</v>
+        <v>41907</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02039753121656404</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01318677417673657</v>
+        <v>0.01424249799331032</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02958506623367461</v>
+        <v>0.03109178749706864</v>
       </c>
     </row>
     <row r="23">
@@ -6399,7 +6399,7 @@
         <v>654273</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>648269</v>
+        <v>649286</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>656558</v>
@@ -6408,7 +6408,7 @@
         <v>0.9965191920533375</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9873756344971917</v>
+        <v>0.9889236344508996</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -6420,19 +6420,19 @@
         <v>666086</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>654007</v>
+        <v>654433</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>675316</v>
+        <v>675039</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9635357736587198</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9460613456717633</v>
+        <v>0.9466788750351004</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9768868023763618</v>
+        <v>0.9764861138276275</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1202</v>
@@ -6441,19 +6441,19 @@
         <v>1320359</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1307976</v>
+        <v>1305945</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1330078</v>
+        <v>1328655</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9796024687834359</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9704149337663257</v>
+        <v>0.9689082125029311</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9868132258232635</v>
+        <v>0.9857575020066897</v>
       </c>
     </row>
     <row r="24">
@@ -6545,19 +6545,19 @@
         <v>3098</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9158</v>
+        <v>8284</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.003979405837371881</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001177230598737975</v>
+        <v>0.001179420134107475</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01176206217123335</v>
+        <v>0.01064035469839783</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>27</v>
@@ -6566,19 +6566,19 @@
         <v>32116</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>21615</v>
+        <v>21550</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>46093</v>
+        <v>45444</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03887303888737349</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02616325209541586</v>
+        <v>0.02608382393668398</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05579128606931993</v>
+        <v>0.05500584722457686</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>30</v>
@@ -6587,19 +6587,19 @@
         <v>35214</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>24266</v>
+        <v>23808</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>50067</v>
+        <v>49795</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0219435549119129</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01512144047829886</v>
+        <v>0.01483609454481909</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03119950469545128</v>
+        <v>0.03102947099179643</v>
       </c>
     </row>
     <row r="26">
@@ -6616,19 +6616,19 @@
         <v>775485</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>769425</v>
+        <v>770299</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>777666</v>
+        <v>777665</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9960205941626281</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9882379378287666</v>
+        <v>0.9893596453016013</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.998822769401262</v>
+        <v>0.9988205798658926</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>728</v>
@@ -6637,19 +6637,19 @@
         <v>794051</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>780074</v>
+        <v>780723</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>804552</v>
+        <v>804617</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9611269611126265</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9442087139306803</v>
+        <v>0.9449941527754233</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9738367479045843</v>
+        <v>0.973916176063316</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1475</v>
@@ -6658,19 +6658,19 @@
         <v>1569536</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1554683</v>
+        <v>1554955</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1580484</v>
+        <v>1580942</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9780564450880871</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9688004953045493</v>
+        <v>0.9689705290082036</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9848785595217012</v>
+        <v>0.9851639054551813</v>
       </c>
     </row>
     <row r="27">
@@ -6762,19 +6762,19 @@
         <v>14271</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>8343</v>
+        <v>8322</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>23125</v>
+        <v>23909</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.004204448015799813</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.002457876952140602</v>
+        <v>0.002451862050430793</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.006812800104598631</v>
+        <v>0.007043768335075613</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>143</v>
@@ -6783,19 +6783,19 @@
         <v>155641</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>131958</v>
+        <v>132144</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>180873</v>
+        <v>181738</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04391016616018439</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03722838677037966</v>
+        <v>0.03728095033833351</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05102867192285026</v>
+        <v>0.05127260756408346</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>157</v>
@@ -6804,19 +6804,19 @@
         <v>169913</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>144743</v>
+        <v>145440</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>197827</v>
+        <v>198576</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02448702030884812</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02085968541148665</v>
+        <v>0.02096009120129991</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02850994058823742</v>
+        <v>0.02861783367497479</v>
       </c>
     </row>
     <row r="29">
@@ -6833,19 +6833,19 @@
         <v>3380079</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3371225</v>
+        <v>3370441</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3386007</v>
+        <v>3386028</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9957955519842002</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9931871998954014</v>
+        <v>0.9929562316649245</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9975421230478594</v>
+        <v>0.9975481379495693</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3195</v>
@@ -6854,19 +6854,19 @@
         <v>3388901</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3363669</v>
+        <v>3362804</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3412584</v>
+        <v>3412398</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9560898338398156</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9489713280771498</v>
+        <v>0.9487273924359169</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9627716132296203</v>
+        <v>0.9627190496616669</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6412</v>
@@ -6875,19 +6875,19 @@
         <v>6768979</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6741065</v>
+        <v>6740316</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6794149</v>
+        <v>6793452</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9755129796911519</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9714900594117626</v>
+        <v>0.9713821663250252</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9791403145885134</v>
+        <v>0.9790399087987001</v>
       </c>
     </row>
     <row r="30">
@@ -7223,19 +7223,19 @@
         <v>4452</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9890</v>
+        <v>9496</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01396320599770716</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005202954314527917</v>
+        <v>0.005189344183956938</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03101882405565813</v>
+        <v>0.02978214249688141</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -7244,19 +7244,19 @@
         <v>19761</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13616</v>
+        <v>13973</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26593</v>
+        <v>27460</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.06252303468154029</v>
+        <v>0.06252303468154027</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04307896318470892</v>
+        <v>0.04421062561007304</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08413802166578167</v>
+        <v>0.08688117642981219</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -7265,19 +7265,19 @@
         <v>24213</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16801</v>
+        <v>17248</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33067</v>
+        <v>32924</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03813663090166853</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02646192245852053</v>
+        <v>0.02716551826485161</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05208114307268016</v>
+        <v>0.05185690375136476</v>
       </c>
     </row>
     <row r="5">
@@ -7294,19 +7294,19 @@
         <v>314393</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>308955</v>
+        <v>309349</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>317186</v>
+        <v>317190</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9860367940022928</v>
+        <v>0.986036794002293</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9689811759443419</v>
+        <v>0.9702178575031185</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9947970456854721</v>
+        <v>0.9948106558160432</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>502</v>
@@ -7315,19 +7315,19 @@
         <v>296300</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>289468</v>
+        <v>288601</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>302445</v>
+        <v>302088</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9374769653184596</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9158619783342182</v>
+        <v>0.9131188235701873</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9569210368152909</v>
+        <v>0.9557893743899269</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>828</v>
@@ -7336,19 +7336,19 @@
         <v>610693</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>601839</v>
+        <v>601982</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>618105</v>
+        <v>617658</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9618633690983317</v>
+        <v>0.9618633690983315</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.94791885692732</v>
+        <v>0.9481430962486355</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9735380775414794</v>
+        <v>0.9728344817351484</v>
       </c>
     </row>
     <row r="6">
@@ -7440,19 +7440,19 @@
         <v>5646</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2000</v>
+        <v>2068</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12691</v>
+        <v>13716</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01066057200389226</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003776339101605685</v>
+        <v>0.003905026480949448</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02396035378233925</v>
+        <v>0.02589647245835865</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -7461,19 +7461,19 @@
         <v>32604</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22863</v>
+        <v>24748</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44441</v>
+        <v>44473</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.0598013481326938</v>
+        <v>0.05980134813269379</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04193395508945831</v>
+        <v>0.04539165772641218</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08151192157184904</v>
+        <v>0.08157058650707374</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>48</v>
@@ -7482,19 +7482,19 @@
         <v>38251</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>27708</v>
+        <v>28023</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>50528</v>
+        <v>52232</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03558650320663798</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02577829398809193</v>
+        <v>0.02607123978958147</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04700850693353963</v>
+        <v>0.04859358386872477</v>
       </c>
     </row>
     <row r="8">
@@ -7511,19 +7511,19 @@
         <v>524014</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>516969</v>
+        <v>515944</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>527660</v>
+        <v>527592</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9893394279961077</v>
+        <v>0.9893394279961079</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9760396462176608</v>
+        <v>0.9741035275416409</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9962236608983943</v>
+        <v>0.9960949735190507</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>672</v>
@@ -7532,19 +7532,19 @@
         <v>512609</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>500772</v>
+        <v>500740</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>522350</v>
+        <v>520465</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9401986518673062</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9184880784281507</v>
+        <v>0.9184294134929265</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.958066044910541</v>
+        <v>0.9546083422735879</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1048</v>
@@ -7553,19 +7553,19 @@
         <v>1036622</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1024345</v>
+        <v>1022641</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1047165</v>
+        <v>1046850</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.964413496793362</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9529914930664604</v>
+        <v>0.9514064161312753</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9742217060119081</v>
+        <v>0.9739287602104183</v>
       </c>
     </row>
     <row r="9">
@@ -7657,19 +7657,19 @@
         <v>4399</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1782</v>
+        <v>1763</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9330</v>
+        <v>8965</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01391962031376713</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005640324632860339</v>
+        <v>0.005579324103718697</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02952530894821679</v>
+        <v>0.02837221901498875</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -7678,19 +7678,19 @@
         <v>26040</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18955</v>
+        <v>18293</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34294</v>
+        <v>35576</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0730677677558406</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05318787552167983</v>
+        <v>0.05133096519207336</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.096229404853719</v>
+        <v>0.09982445481394775</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>49</v>
@@ -7699,19 +7699,19 @@
         <v>30439</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22378</v>
+        <v>21883</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40237</v>
+        <v>38886</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.0452701364895538</v>
+        <v>0.04527013648955378</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03328253911631726</v>
+        <v>0.03254535935898625</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05984348522658529</v>
+        <v>0.05783435609978715</v>
       </c>
     </row>
     <row r="11">
@@ -7728,19 +7728,19 @@
         <v>311594</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>306663</v>
+        <v>307028</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>314211</v>
+        <v>314230</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9860803796862329</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9704746910517832</v>
+        <v>0.9716277809850106</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9943596753671397</v>
+        <v>0.9944206758962814</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>493</v>
@@ -7749,19 +7749,19 @@
         <v>330341</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>322087</v>
+        <v>320805</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>337426</v>
+        <v>338088</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9269322322441594</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9037705951462812</v>
+        <v>0.9001755451860525</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9468121244783203</v>
+        <v>0.9486690348079267</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>847</v>
@@ -7770,19 +7770,19 @@
         <v>641936</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>632138</v>
+        <v>633489</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>649997</v>
+        <v>650492</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9547298635104464</v>
+        <v>0.9547298635104462</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9401565147734147</v>
+        <v>0.9421656439002127</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9667174608836826</v>
+        <v>0.9674546406410137</v>
       </c>
     </row>
     <row r="12">
@@ -7877,7 +7877,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3803</v>
+        <v>4086</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003149534433127129</v>
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0101920901133271</v>
+        <v>0.010950992257382</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>53</v>
@@ -7895,19 +7895,19 @@
         <v>32886</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24320</v>
+        <v>24820</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42263</v>
+        <v>42828</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07793580981912653</v>
+        <v>0.07793580981912654</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05763677687906205</v>
+        <v>0.05882015437966916</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1001579563563998</v>
+        <v>0.10149760302735</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>55</v>
@@ -7916,19 +7916,19 @@
         <v>34061</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24930</v>
+        <v>25854</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>45393</v>
+        <v>46081</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0428384524758184</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03135442476630988</v>
+        <v>0.03251646882630697</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05709038570008471</v>
+        <v>0.0579555516032544</v>
       </c>
     </row>
     <row r="14">
@@ -7945,16 +7945,16 @@
         <v>371970</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>369342</v>
+        <v>369059</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>373145</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9968504655668727</v>
+        <v>0.996850465566873</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9898079098866714</v>
+        <v>0.9890490077426171</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -7966,19 +7966,19 @@
         <v>389075</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>379698</v>
+        <v>379133</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>397641</v>
+        <v>397141</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9220641901808735</v>
+        <v>0.9220641901808736</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8998420436436002</v>
+        <v>0.89850239697265</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.942363223120938</v>
+        <v>0.941179845620331</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>836</v>
@@ -7987,19 +7987,19 @@
         <v>761046</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>749714</v>
+        <v>749026</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>770177</v>
+        <v>769253</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9571615475241816</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9429096142999153</v>
+        <v>0.9420444483967456</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9686455752336902</v>
+        <v>0.9674835311736931</v>
       </c>
     </row>
     <row r="15">
@@ -8091,19 +8091,19 @@
         <v>4477</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1365</v>
+        <v>1307</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11011</v>
+        <v>11853</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02176709102482365</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006636329327301083</v>
+        <v>0.006356345704771655</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05353979481664594</v>
+        <v>0.05763282376524533</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -8112,19 +8112,19 @@
         <v>19718</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14850</v>
+        <v>15200</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26485</v>
+        <v>26138</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.08692645655618784</v>
+        <v>0.08692645655618783</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0654674104440864</v>
+        <v>0.06700874188989049</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1167578533620781</v>
+        <v>0.1152299015290314</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>50</v>
@@ -8133,19 +8133,19 @@
         <v>24195</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17998</v>
+        <v>17947</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31941</v>
+        <v>32650</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05594157249385029</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04161492032224291</v>
+        <v>0.04149617153266411</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07385276960987397</v>
+        <v>0.07549162593161994</v>
       </c>
     </row>
     <row r="17">
@@ -8162,19 +8162,19 @@
         <v>201188</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>194654</v>
+        <v>193812</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>204300</v>
+        <v>204358</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9782329089751763</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9464602051833543</v>
+        <v>0.9423671762347545</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9933636706726989</v>
+        <v>0.9936436542952284</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>445</v>
@@ -8183,19 +8183,19 @@
         <v>207118</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>200351</v>
+        <v>200698</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>211986</v>
+        <v>211636</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9130735434438123</v>
+        <v>0.9130735434438121</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8832421466379222</v>
+        <v>0.8847700984709685</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9345325895559138</v>
+        <v>0.9329912581101095</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>720</v>
@@ -8204,19 +8204,19 @@
         <v>408306</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>400560</v>
+        <v>399851</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>414503</v>
+        <v>414554</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9440584275061497</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9261472303901259</v>
+        <v>0.92450837406838</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.958385079677757</v>
+        <v>0.9585038284673358</v>
       </c>
     </row>
     <row r="18">
@@ -8308,19 +8308,19 @@
         <v>2069</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>498</v>
+        <v>771</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5345</v>
+        <v>5703</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007642591181078899</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.001839812591187538</v>
+        <v>0.002849261586045459</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01974557928614219</v>
+        <v>0.02106652116968539</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>58</v>
@@ -8329,19 +8329,19 @@
         <v>26987</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20620</v>
+        <v>20854</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34543</v>
+        <v>34643</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1023202860380596</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07818103197530954</v>
+        <v>0.07906589075837457</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1309680414252473</v>
+        <v>0.1313478286788596</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>62</v>
@@ -8350,19 +8350,19 @@
         <v>29056</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>22998</v>
+        <v>22711</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>37196</v>
+        <v>37316</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.05436525920826898</v>
+        <v>0.05436525920826899</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04303049509008183</v>
+        <v>0.04249301959382243</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06959519299271208</v>
+        <v>0.06982084014404176</v>
       </c>
     </row>
     <row r="20">
@@ -8379,19 +8379,19 @@
         <v>268638</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>265362</v>
+        <v>265004</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>270209</v>
+        <v>269936</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9923574088189211</v>
+        <v>0.992357408818921</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9802544207138579</v>
+        <v>0.9789334788303147</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9981601874088125</v>
+        <v>0.9971507384139544</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>402</v>
@@ -8400,19 +8400,19 @@
         <v>236763</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>229207</v>
+        <v>229107</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>243130</v>
+        <v>242896</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8976797139619405</v>
+        <v>0.8976797139619401</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8690319585747528</v>
+        <v>0.8686521713211403</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9218189680246903</v>
+        <v>0.9209341092416252</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>769</v>
@@ -8421,19 +8421,19 @@
         <v>505401</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>497261</v>
+        <v>497141</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>511459</v>
+        <v>511746</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9456347407917309</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9304048070072866</v>
+        <v>0.9301791598559581</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9569695049099179</v>
+        <v>0.9575069804061775</v>
       </c>
     </row>
     <row r="21">
@@ -8525,19 +8525,19 @@
         <v>13412</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7100</v>
+        <v>6604</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26146</v>
+        <v>25594</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0186353534014237</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009866055063108987</v>
+        <v>0.009176825595579974</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03633002362258053</v>
+        <v>0.0355632791518463</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>128</v>
@@ -8546,19 +8546,19 @@
         <v>94858</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>80535</v>
+        <v>79365</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>111439</v>
+        <v>112004</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1229790373034104</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1044097138753775</v>
+        <v>0.1028927373672155</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1444754480415646</v>
+        <v>0.1452079123041343</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>139</v>
@@ -8567,19 +8567,19 @@
         <v>108269</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>90559</v>
+        <v>91028</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>127294</v>
+        <v>129397</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.07261432030965217</v>
+        <v>0.07261432030965219</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06073652129841828</v>
+        <v>0.06105053787758605</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08537360522007528</v>
+        <v>0.08678415015366422</v>
       </c>
     </row>
     <row r="23">
@@ -8596,19 +8596,19 @@
         <v>706275</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>693541</v>
+        <v>694093</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>712587</v>
+        <v>713083</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9813646465985763</v>
+        <v>0.9813646465985765</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9636699763774187</v>
+        <v>0.9644367208481531</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9901339449368909</v>
+        <v>0.9908231744044199</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>831</v>
@@ -8617,19 +8617,19 @@
         <v>676475</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>659894</v>
+        <v>659329</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>690798</v>
+        <v>691968</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8770209626965895</v>
+        <v>0.8770209626965898</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8555245519584354</v>
+        <v>0.8547920876958656</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8955902861246225</v>
+        <v>0.8971072626327843</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1419</v>
@@ -8638,19 +8638,19 @@
         <v>1382751</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1363726</v>
+        <v>1361623</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1400461</v>
+        <v>1399992</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9273856796903479</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9146263947799249</v>
+        <v>0.9132158498463356</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9392634787015818</v>
+        <v>0.9389494621224137</v>
       </c>
     </row>
     <row r="24">
@@ -8742,19 +8742,19 @@
         <v>11774</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6193</v>
+        <v>5958</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>19390</v>
+        <v>19241</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.01475308140265535</v>
+        <v>0.01475308140265536</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007759712557055031</v>
+        <v>0.007465431750673868</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02429607042030155</v>
+        <v>0.02410979713148502</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>81</v>
@@ -8763,19 +8763,19 @@
         <v>58205</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>47138</v>
+        <v>45801</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>72597</v>
+        <v>71479</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07012571547187928</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05679262064256044</v>
+        <v>0.05518136049413003</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08746551542063434</v>
+        <v>0.08611920625412472</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>95</v>
@@ -8784,19 +8784,19 @@
         <v>69979</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>56083</v>
+        <v>57099</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>84049</v>
+        <v>86050</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04298244830699171</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0344473532036766</v>
+        <v>0.03507155998810663</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0516245773511913</v>
+        <v>0.05285396258825099</v>
       </c>
     </row>
     <row r="26">
@@ -8813,19 +8813,19 @@
         <v>786298</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>778682</v>
+        <v>778831</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>791879</v>
+        <v>792114</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9852469185973445</v>
+        <v>0.9852469185973447</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9757039295796985</v>
+        <v>0.9758902028685149</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9922402874429451</v>
+        <v>0.9925345682493261</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>979</v>
@@ -8834,19 +8834,19 @@
         <v>771801</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>757409</v>
+        <v>758527</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>782868</v>
+        <v>784205</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9298742845281208</v>
+        <v>0.9298742845281209</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9125344845793656</v>
+        <v>0.9138807937458752</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9432073793574395</v>
+        <v>0.94481863950587</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1727</v>
@@ -8855,19 +8855,19 @@
         <v>1558099</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1544029</v>
+        <v>1542028</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1571995</v>
+        <v>1570979</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9570175516930083</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9483754226488086</v>
+        <v>0.947146037411749</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9655526467963234</v>
+        <v>0.9649284400118934</v>
       </c>
     </row>
     <row r="27">
@@ -8959,19 +8959,19 @@
         <v>47404</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>33518</v>
+        <v>34791</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>63066</v>
+        <v>62988</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01342203222106385</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.009490426092679763</v>
+        <v>0.009850761454614766</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01785674746800205</v>
+        <v>0.0178347658486354</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>488</v>
@@ -8980,19 +8980,19 @@
         <v>311059</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>282275</v>
+        <v>284212</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>337993</v>
+        <v>340948</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.08335939018949527</v>
+        <v>0.08335939018949524</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07564579918247535</v>
+        <v>0.07616482588294896</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09057722051449342</v>
+        <v>0.09136920961432299</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>539</v>
@@ -9001,19 +9001,19 @@
         <v>358463</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>327452</v>
+        <v>327997</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>392675</v>
+        <v>394749</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.04935247601522098</v>
+        <v>0.049352476015221</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04508302511540447</v>
+        <v>0.04515796549293816</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05406271006467305</v>
+        <v>0.05434837223615735</v>
       </c>
     </row>
     <row r="29">
@@ -9030,19 +9030,19 @@
         <v>3484371</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3468709</v>
+        <v>3468787</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3498257</v>
+        <v>3496984</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9865779677789362</v>
+        <v>0.9865779677789361</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.982143252531998</v>
+        <v>0.9821652341513647</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9905095739073201</v>
+        <v>0.9901492385453852</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4870</v>
@@ -9051,19 +9051,19 @@
         <v>3420483</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3393549</v>
+        <v>3390594</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3449267</v>
+        <v>3447330</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9166406098105049</v>
+        <v>0.9166406098105047</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9094227794855068</v>
+        <v>0.9086307903856772</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9243542008175248</v>
+        <v>0.9238351741170513</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8194</v>
@@ -9072,19 +9072,19 @@
         <v>6904853</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6870641</v>
+        <v>6868567</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6935864</v>
+        <v>6935319</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.950647523984779</v>
+        <v>0.9506475239847789</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9459372899353269</v>
+        <v>0.9456516277638424</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9549169748845956</v>
+        <v>0.9548420345070617</v>
       </c>
     </row>
     <row r="30">
